--- a/data/financial_statements/sofp/PGR.xlsx
+++ b/data/financial_statements/sofp/PGR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,840 +584,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>365300000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>240500000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>287300000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>202100000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>285500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>114600000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>123200000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>76500000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>91100000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>109100000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>370400000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>227400000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>46200000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>92900000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>158700000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>75000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>122700000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>157700000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>196600000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>275300000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>256300000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>161800000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>215000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>226400000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>165700000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>134700000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>209900000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>224400000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>194500000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>263800000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>101500000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>108400000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>90600000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>126100000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>96700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>75100000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>100900000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>96900000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>110200000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>16249000000</v>
+      </c>
+      <c r="C3">
         <v>17174500000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>15523000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>15544000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>14380000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15291600000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14145300000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>13362000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>12179500000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12561600000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11211700000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>11207900000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>10886200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>10985600000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>10218600000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>10032600000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>9193200000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9267100000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>8640900000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>8282900000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>7695900000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>8221000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>7118400000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>6789700000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>6394000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>6645300000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>6191900000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>5947100000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>5476500000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>5554800000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>5269600000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>5034200000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>4769400000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4871500000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4701300000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4627400000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>4400900000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>4532700000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>4364100000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>4319800000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>16249000000</v>
+      </c>
+      <c r="C4">
         <v>17539800000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>15763500000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15831300000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14582100000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15577100000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14259900000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>13485200000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>12256000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>12652700000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>11320800000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>11578300000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>11113600000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>11031800000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>10311500000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10191300000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>9268200000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9389800000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>8798601000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>8479500000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>7971200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>8477300000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>7280200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>7004700000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>6620400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>6811000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>6326601000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>6157000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5700900000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5749300000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5533400000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5135700000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>4877800000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>4962100000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>4827400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>4724100000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>4476000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>4633600000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>4461000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>4430000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>1067100000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1124700000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1104400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1137300000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1161000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1086400000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1077400000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1106000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1181600000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1189800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1215100000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1213700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1214200000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1174900000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1127300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1131700000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1139300000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1116400000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1112000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1119600000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1129400000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1152100000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1166000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>1177100000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1115000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1083700000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1061900000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1037200000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1024100000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1018900000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>957500000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>960600000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>954000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>952500000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>950000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>960900000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>955300000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>950600000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>935900000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>53548300000</v>
+      </c>
+      <c r="C6">
         <v>52547800000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>52146200000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>53379800000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>51695800000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>52456000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>51122100000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>47566600000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>47706700000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>45945800000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>43968700000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>40513900000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>39435600000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>38756200000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>37002100000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>34684600000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>33758200000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>32510100000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>31067500000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>29390800000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>27394400000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>27107700000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>26090500000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>24413100000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>23586500000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>23618500000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>22473700000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>21424100000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>21039500000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>21117200000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>20677800000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>19915300000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>19105300000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>19165100000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>18842100000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>17478000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>18144500000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>18087400000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>17576800000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>17387000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>314200000</v>
+      </c>
+      <c r="C7">
         <v>319700000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>325100000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>555400000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>570000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>584600000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>599200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>609900000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>624100000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>638200000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>652400000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>666500000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>681000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>695600000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>711400000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>729400000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>747300000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>765300000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>783300000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>801300000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>819300000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>837300000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>854500000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>866700000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>882200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>897700000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>913200000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>927000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>942500000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>956900000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>998900000</v>
-      </c>
-      <c r="AF7">
-        <v>12900000</v>
       </c>
       <c r="AG7">
         <v>12900000</v>
@@ -1314,977 +1440,998 @@
       <c r="AI7">
         <v>12900000</v>
       </c>
+      <c r="AJ7">
+        <v>12900000</v>
+      </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>1544400000</v>
+      </c>
+      <c r="C8">
         <v>2854700000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2454000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1778200000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1355600000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1430700000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1360600000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1309100000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1237200000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1265000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1154800000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1116400000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1056500000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1093700000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1047400000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>999100000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>994800000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>962700000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>895700000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>842300000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>780500000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>782600000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>727200000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>679500000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>651200000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>675400000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>645200000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>600000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>564100000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>590800000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>568200000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>484000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>457200000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>488300000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>479000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>466900000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>447600000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>502100000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>536000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>501300000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>3809100000</v>
+      </c>
+      <c r="C9">
         <v>1195100000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1243700000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1280500000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1791500000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>1408700000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1396100000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1365100000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1168300000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1222700000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1134900000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1176200000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1410100000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>1216600000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1076900000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1118600000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>674800000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>776500000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>702000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>705000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>616200000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>598300000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>585300000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>680500000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>510100000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>503200000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>515800000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>551600000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>535100000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>496700000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>507000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>375300000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>373800000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>343600000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>338800000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>696400000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>379200000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>330500000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>317400000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>289300000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>59216000000</v>
+      </c>
+      <c r="C10">
         <v>57984400000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>57293700000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>58098290000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>56550200000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>57041000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>55564400000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>51928100000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>51842300000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>50253300000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>48100600000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>44688100000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>43796900000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>42976300000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>41012700000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>38659000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>37306800000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>36153900000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>34564900000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>32851400000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>30730000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>30455300000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>29409600000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>27805800000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>26807100000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>26809800000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>25631600000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>24564600000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>24118400000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>24185700000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>23770800000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>21745000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>20909800000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>20963900000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>20625300000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>19591300000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>19932200000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>19875300000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>19380800000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>19113500000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>75465000000</v>
+      </c>
+      <c r="C11">
         <v>75524200000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>73057200000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>73929600000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>71132300000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>72618100000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>69824300000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>65413300000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>64098300000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>62906000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>59421400000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>56266400000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>54910500000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>54008100000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>51324200000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>48850300000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>46575000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>45543700000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>43363500000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>41330900000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>38701200000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>38932600000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>36689800000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>34810500000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>33427500000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>33620800000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>31958200000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>30721600000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>29819300000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>29935000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>29304200000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>26880700000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>25787600000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>25926000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>25452700000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>24315400000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>24408200000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>24508900000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>23841800000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>23543500000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>47652900000</v>
+      </c>
+      <c r="C12">
         <v>54360600000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>51018000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>50492800000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>47849000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>49051100000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>45531800000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>41938500000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>41353600000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>39195500000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>37144900000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>36295300000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>36486600000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>35119400000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>33232800000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>32074500000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>31133800000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>29554100000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>28239000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>26581100000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>25471400000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>25631300000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>23621300000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>22513300000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>21727200000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>21742800000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>20851100000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>19878800000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>19247800000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>19230100000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>18596000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>17021500000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>16595400000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>16769000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>16356700000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>15964400000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>16329400000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>15705700000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>15254000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>15090200000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>47652900000</v>
+      </c>
+      <c r="C13">
         <v>54360600000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>51018000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>50492800000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>47849000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>49051100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>45531800000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>41938500000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>41353600000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>39195500000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>37144900000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>36295300000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>36486600000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>35119400000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>33232800000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>32074500000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>31133800000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>29554100000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>28239000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>26581100000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>25471400000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>25631300000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>23621300000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>22513300000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>21727200000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>21742800000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>20851100000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>19878800000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>19247800000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>19230100000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>18596000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>17021500000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>16595400000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>16769000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>16356700000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>15964400000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>16329400000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>15705700000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>15254000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>15090200000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>6388300000</v>
+      </c>
+      <c r="C14">
         <v>6387400000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6386500000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6385600000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4898800000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4898200000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5397500000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>5396800000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>5396100000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5395400000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5394700000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5394000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4407100000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>4406500000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>4406000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>4405400000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>4404900000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3859900000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3859500000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>3859200000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3306300000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3312200000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3383400000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>3111700000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3148200000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>3153900000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>2664100000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>2701600000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2707900000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2714300000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2739000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2560100000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2164700000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>2164300000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2208000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1861300000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1860900000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2010600000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2063900000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2063500000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>-1270000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-956000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-371000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>152900000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>110700000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>219400000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>241500000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>310000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>227900000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>211200000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-35000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>118000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>136000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>134500000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>38500000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>53500000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>46000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>53200000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>135000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>201500000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>191800000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>168400000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>111300000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>156900000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>140700000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>113900000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>109300000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>85700000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>176000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>97200000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>98900000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>57400000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>98800000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>51100000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>28400000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2296,488 +2443,497 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>225600000</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>225600000</v>
       </c>
       <c r="N16">
+        <v>225600000</v>
+      </c>
+      <c r="O16">
         <v>222900000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>220100000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>221200000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>214500000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>217400000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>218200000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>514200000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>503700000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>498200000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>501800000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>494200000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>483700000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>472500000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>466800000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>467400000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>464900000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>442900000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>433400000</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
+      <c r="AG16">
         <v>0</v>
       </c>
       <c r="AI16">
         <v>0</v>
       </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>5532800000</v>
+      </c>
+      <c r="C17">
         <v>5932000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5931000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>6747000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5888000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1555000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>6080000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5829000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7471000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>5220000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>5394000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5157000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5761000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>11921100000</v>
+      </c>
+      <c r="C18">
         <v>6387400000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6386500000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6385600000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5051700000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>5008900000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>5616900000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5638300000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>5706100000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5623300000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5605900000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5619600000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>4750700000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>4765400000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4760600000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>4665100000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>4619400000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>4130800000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>4123700000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>4426600000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>3945000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4011900000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4077000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>3774300000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>3743200000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>3783300000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3271600000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>3282900000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>3282100000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>3242900000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3348400000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2657300000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2263600000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2221700000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2306800000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>1912400000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1889300000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2010600000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2063900000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2063500000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>59574000000</v>
+      </c>
+      <c r="C19">
         <v>60748000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>57404500000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>56878400000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>52900700000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>54060000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>51148700000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>47576800000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>47059700000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>44818800000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>42750800000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>41914900000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>41237300000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>39884800000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>37993400000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>36739600000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>35753200000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>33684900000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>32362700000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>31007700000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>29416400000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>29643200000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>27698300000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>26287600000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>25470400000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>25526100000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>24122700000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>23161700000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>22529900000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>22473000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>21944400000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>19678800000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>18859000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>18990700000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>18663500000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>17876800000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>18218700000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>17716300000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>17317900000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>17153700000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>1839600000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1815200000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1788600000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1772900000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1735900000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1712300000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1685500000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1672900000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1629400000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1614500000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1601900000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1573400000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1539100000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1523300000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1496600000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>1479000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1443400000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1425900000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>1401600000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>1389200000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1365100000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>1351000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>1331100000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>1303400000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>1284700000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>1264600000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>1231300000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>1218800000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>1197300000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1177000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>1196700000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>1184300000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>1169900000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>1169300000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>1159000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>1142000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>1123000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>1109300000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>1096900000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>493900000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>493900000</v>
@@ -2833,28 +2989,28 @@
       <c r="T21">
         <v>493900000</v>
       </c>
+      <c r="U21">
+        <v>493900000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>585100000</v>
-      </c>
-      <c r="C22">
-        <v>584900000</v>
       </c>
       <c r="D22">
         <v>584900000</v>
       </c>
       <c r="E22">
+        <v>584900000</v>
+      </c>
+      <c r="F22">
         <v>584400000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>585000000</v>
-      </c>
-      <c r="G22">
-        <v>585200000</v>
       </c>
       <c r="H22">
         <v>585200000</v>
@@ -2863,608 +3019,617 @@
         <v>585200000</v>
       </c>
       <c r="J22">
+        <v>585200000</v>
+      </c>
+      <c r="K22">
         <v>585600000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>585400000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>585300000</v>
-      </c>
-      <c r="M22">
-        <v>584600000</v>
       </c>
       <c r="N22">
         <v>584600000</v>
       </c>
       <c r="O22">
+        <v>584600000</v>
+      </c>
+      <c r="P22">
         <v>584100000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>584000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>583200000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>583100000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>582500000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>582400000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>581700000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>581600000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>581000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>580900000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>579900000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>580800000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>581900000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>583000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>583600000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>584600000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>585900000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>587300000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>587800000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>589200000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>591500000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>593100000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>595800000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>600000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>600400000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>603200000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>14987500000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>14967700000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>15569600000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>15339700000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>15390000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>15401000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14679600000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>13354900000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>14427700000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>13001800000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>11266200000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>10679600000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>10995200000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>10276400000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>9358100000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>8386600000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>9602100000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>8720400000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>8017900000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>6031700000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>6116500000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>5908800000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>5543400000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>5140400000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>5183100000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>5031200000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>4877600000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>4686600000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>4910900000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>4694900000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>4368600000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>4133400000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>4203500000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>3989500000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>3735200000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>3500000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>4198700000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>4000000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>3720000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>14282300000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>15158800000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>16557300000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>17737700000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>18064200000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>18181700000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>17342600000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>16544700000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>17593300000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>16176700000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>13857600000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>13179300000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>13629400000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12836900000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11616800000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>10327900000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>11364900000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>10506900000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>9829301000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>9284800000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>9289400000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>8991500000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>8522900000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>7957100000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>8094700000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>7835500000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>7559900000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>7289400000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>7462000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>7359800000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>7201900000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>6928600000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>6935300000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>6789200000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>6438600000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>6189500000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>6792600000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>6523900000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>6389800000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>15891000000</v>
+      </c>
+      <c r="C25">
         <v>14776200000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>15652700000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>17051200000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>18231600000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>18558100000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>18675600000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>17836500000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>17038600000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>18087200000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>16670600000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>14351500000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>13673200000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>14123300000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>13330800000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12110700000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>10821800000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>11858800000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11000800000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10323200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>9284800000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>9289400000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>8991500000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>8522900000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>7957100000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>8094700000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7835500000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>7559900000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>7289400000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>7462000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>7359800000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>7201900000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>6928600000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>6935300000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>6789200000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>6438600000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>6189500000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>6792600000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>6523900000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>6389800000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>75465000000</v>
+      </c>
+      <c r="C26">
         <v>75524200000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>73057200000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>73929600000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>71132300000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>72618100000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>69824300000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>65413300000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>64098300000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>62906000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>59421400000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>56266400000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>54910500000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>54008100000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>51324200000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>48850300000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>46575000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>45543700000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>43363500000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>41330900000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>38701200000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>38932600000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>36689800000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>34810500000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>33427500000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>33620800000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>31958200000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>30721600000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>29819300000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>29935000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>29304200000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>26880700000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>25787600000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>25926000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>25452700000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>24315400000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>24408200000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>24508900000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>23841800000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>23543500000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>584900000</v>
+      </c>
+      <c r="C27">
         <v>585100000</v>
-      </c>
-      <c r="C27">
-        <v>584900000</v>
       </c>
       <c r="D27">
         <v>584900000</v>
       </c>
       <c r="E27">
+        <v>584900000</v>
+      </c>
+      <c r="F27">
         <v>584400000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>585000000</v>
-      </c>
-      <c r="G27">
-        <v>585200000</v>
       </c>
       <c r="H27">
         <v>585200000</v>
@@ -3473,105 +3638,105 @@
         <v>585200000</v>
       </c>
       <c r="J27">
+        <v>585200000</v>
+      </c>
+      <c r="K27">
         <v>585600000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>585400000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>585300000</v>
-      </c>
-      <c r="M27">
-        <v>584600000</v>
       </c>
       <c r="N27">
         <v>584600000</v>
       </c>
       <c r="O27">
+        <v>584600000</v>
+      </c>
+      <c r="P27">
         <v>584100000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>584000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>583200000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>583100000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>582500000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>582400000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>581700000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>581600000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>581000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>580900000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>579900000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>580800000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>581900000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>583000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>583600000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>584600000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>585900000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>587300000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>587800000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>589200000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>591500000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>593100000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>595800000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>600000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>600400000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>603200000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>500000</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C28">
         <v>500000</v>
@@ -3627,370 +3792,382 @@
       <c r="T28">
         <v>500000</v>
       </c>
+      <c r="U28">
+        <v>500000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>15576800000</v>
+      </c>
+      <c r="C29">
         <v>14456500000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>15327600000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>16495800000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>17661600000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>17973500000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>18076400000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>17226600000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>16414500000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>17449000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>16018200000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>13685000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>12992200000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>13427700000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>12619400000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>11381300000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>10074500000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>11093500000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>10217500000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>9521899000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>8465499000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>8452103000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>8137000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>7656200000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>7074899000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>7197001000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>6922300000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>6632900000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>6346900000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>6505100000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>6360899000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>7188999000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>6915700000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>6922401000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>6776299000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>6438600000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>6189500000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>6792600000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>6523900000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>6389801000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>6388300000</v>
+      </c>
+      <c r="C30">
         <v>6022100000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6146000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6098300000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>4696700000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4612700000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5282900000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5273600000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5319600000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>5304300000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5285600000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>5023600000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4179700000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>4360300000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>4313100000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4246700000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>4329900000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3737200000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>3701800000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>3662600000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>3031000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>3055900000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>3221600000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>2896700000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>2921800000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>2988200000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>2529400000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>2491700000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>2483500000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>2519800000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2475200000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>2458600000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>2056300000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>2073700000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>2081900000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1764600000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1785800000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1909700000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1967000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1953300000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>6388300000</v>
+      </c>
+      <c r="C31">
         <v>6387400000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>6386500000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6385600000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4898800000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>4898200000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>5397500000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5396800000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5396100000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5395400000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5394700000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>5394000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>4407100000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>4406500000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>4406000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>4405400000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>4404900000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>3859900000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>3859500000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>3859200000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>3306300000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>3312200000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>3383400000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>3111700000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>3148200000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>3153900000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>2664100000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>2701600000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>2707900000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>2714300000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>2739000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>2560100000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>2164700000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>2164300000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>2208000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1861300000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1860900000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>2010600000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>2063900000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>2063500000</v>
       </c>
     </row>
